--- a/Code/Results/Cases/Case_5_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.70127746173169</v>
+        <v>21.24103426297825</v>
       </c>
       <c r="C2">
-        <v>18.33325874965892</v>
+        <v>10.16730127147443</v>
       </c>
       <c r="D2">
-        <v>4.046931801171691</v>
+        <v>6.783034899723157</v>
       </c>
       <c r="E2">
-        <v>5.408606005172977</v>
+        <v>9.242673668494744</v>
       </c>
       <c r="F2">
-        <v>34.89368010892518</v>
+        <v>36.50089427488133</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>22.12958310995353</v>
+        <v>28.57412395558024</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.878944324378325</v>
+        <v>10.51400227631766</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.11801199061198</v>
+        <v>18.8490871953992</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.802892014594</v>
+        <v>20.7331130343156</v>
       </c>
       <c r="C3">
-        <v>17.02767572057303</v>
+        <v>9.571374779614194</v>
       </c>
       <c r="D3">
-        <v>4.149420517295002</v>
+        <v>6.813626447635657</v>
       </c>
       <c r="E3">
-        <v>5.437904656594574</v>
+        <v>9.258936321943818</v>
       </c>
       <c r="F3">
-        <v>33.22430197291451</v>
+        <v>36.25053531943155</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>21.5609498531037</v>
+        <v>28.5699713761728</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.586995017726177</v>
+        <v>10.49248674702796</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.40265350953951</v>
+        <v>18.92323688013329</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.57997206530594</v>
+        <v>20.42113794443141</v>
       </c>
       <c r="C4">
-        <v>16.18636436005748</v>
+        <v>9.188186371296117</v>
       </c>
       <c r="D4">
-        <v>4.214241492524637</v>
+        <v>6.833358383626037</v>
       </c>
       <c r="E4">
-        <v>5.45721537716495</v>
+        <v>9.26955483221135</v>
       </c>
       <c r="F4">
-        <v>32.20217871810458</v>
+        <v>36.10809446377849</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>21.23234829835759</v>
+        <v>28.57515571999571</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.408720775514777</v>
+        <v>10.48153583486208</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.58006538251325</v>
+        <v>18.97075048805318</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.1044962154362</v>
+        <v>20.29418125165343</v>
       </c>
       <c r="C5">
-        <v>15.83335900231868</v>
+        <v>9.027830497371996</v>
       </c>
       <c r="D5">
-        <v>4.241120767758937</v>
+        <v>6.841638131436982</v>
       </c>
       <c r="E5">
-        <v>5.465409886560788</v>
+        <v>9.274041532107173</v>
       </c>
       <c r="F5">
-        <v>31.78673745497046</v>
+        <v>36.05292966471112</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>21.10349691627338</v>
+        <v>28.57920677570069</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.336387448443869</v>
+        <v>10.47764380748857</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.65307523672211</v>
+        <v>18.99061338602415</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.02485825587518</v>
+        <v>20.27311685253524</v>
       </c>
       <c r="C6">
-        <v>15.77412361809715</v>
+        <v>9.000954446605586</v>
       </c>
       <c r="D6">
-        <v>4.245611824834848</v>
+        <v>6.843027410418425</v>
       </c>
       <c r="E6">
-        <v>5.466790034546574</v>
+        <v>9.274796193342731</v>
       </c>
       <c r="F6">
-        <v>31.71783118295681</v>
+        <v>36.04394478096481</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>21.0824033476581</v>
+        <v>28.57999631239072</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.324397730430439</v>
+        <v>10.47703205817565</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.66524292794428</v>
+        <v>18.99394189045201</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.57354073426802</v>
+        <v>20.4194247779991</v>
       </c>
       <c r="C7">
-        <v>16.18164499875361</v>
+        <v>9.186040563501903</v>
       </c>
       <c r="D7">
-        <v>4.214602128666983</v>
+        <v>6.833469079852981</v>
       </c>
       <c r="E7">
-        <v>5.457324582900661</v>
+        <v>9.269614694835154</v>
       </c>
       <c r="F7">
-        <v>32.19657101572567</v>
+        <v>36.1073387728125</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>21.230590237801</v>
+        <v>28.57520251507655</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.407743891748453</v>
+        <v>10.48148103274049</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.5810470684406</v>
+        <v>18.9710163367843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.05849856921774</v>
+        <v>21.06604568684344</v>
       </c>
       <c r="C8">
-        <v>17.89121230808263</v>
+        <v>9.965490839614146</v>
       </c>
       <c r="D8">
-        <v>4.081868685400692</v>
+        <v>6.793386155724206</v>
       </c>
       <c r="E8">
-        <v>5.418429448148709</v>
+        <v>9.248149828323216</v>
       </c>
       <c r="F8">
-        <v>34.31766746479718</v>
+        <v>36.41225763017709</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>21.9291901515819</v>
+        <v>28.57108347763698</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.778113232456676</v>
+        <v>10.50611626462322</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.2156384856067</v>
+        <v>18.87424282729003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.48682580630609</v>
+        <v>22.32462432897404</v>
       </c>
       <c r="C9">
-        <v>20.93802257313888</v>
+        <v>11.35190367399198</v>
       </c>
       <c r="D9">
-        <v>3.837402928147336</v>
+        <v>6.722297080481603</v>
       </c>
       <c r="E9">
-        <v>5.353010407593586</v>
+        <v>9.211065352732946</v>
       </c>
       <c r="F9">
-        <v>38.48932819719692</v>
+        <v>37.09748599449368</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>23.46715007849402</v>
+        <v>28.62460295030326</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.509868698319703</v>
+        <v>10.57223251628998</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.51770044121067</v>
+        <v>18.70015472599574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.48409865791312</v>
+        <v>23.23267697735591</v>
       </c>
       <c r="C10">
-        <v>23.00431864446962</v>
+        <v>12.29779322933998</v>
       </c>
       <c r="D10">
-        <v>3.669163088399825</v>
+        <v>6.674629660981654</v>
       </c>
       <c r="E10">
-        <v>5.312183995190196</v>
+        <v>9.186850531309052</v>
       </c>
       <c r="F10">
-        <v>41.55560486910434</v>
+        <v>37.65079809015274</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>24.70743516849285</v>
+        <v>28.70170920611979</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.048760560409647</v>
+        <v>10.631469094186</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.01290443399552</v>
+        <v>18.5817152093954</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.79615990449054</v>
+        <v>23.64006818330384</v>
       </c>
       <c r="C11">
-        <v>23.91052814866646</v>
+        <v>12.72989003967784</v>
       </c>
       <c r="D11">
-        <v>3.595717868082109</v>
+        <v>6.653931447733713</v>
       </c>
       <c r="E11">
-        <v>5.295357875174544</v>
+        <v>9.176488174596102</v>
       </c>
       <c r="F11">
-        <v>42.95206328466074</v>
+        <v>37.91253805314977</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>25.29785590465485</v>
+        <v>28.74501282236967</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.294104029979962</v>
+        <v>10.66068086674379</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.78422741250183</v>
+        <v>18.5298677778927</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.28601687225489</v>
+        <v>23.79335975593877</v>
       </c>
       <c r="C12">
-        <v>24.24917388274634</v>
+        <v>12.88978341918996</v>
       </c>
       <c r="D12">
-        <v>3.56842661974516</v>
+        <v>6.646235152498687</v>
       </c>
       <c r="E12">
-        <v>5.289255684116929</v>
+        <v>9.17265778845773</v>
       </c>
       <c r="F12">
-        <v>43.48137419899358</v>
+        <v>38.0130218233759</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>25.5254386089079</v>
+        <v>28.76259308836812</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.387055822713988</v>
+        <v>10.67206313834741</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.69770765412729</v>
+        <v>18.51052507747634</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.18082136803848</v>
+        <v>23.76039163344799</v>
       </c>
       <c r="C13">
-        <v>24.17643544832245</v>
+        <v>12.85551321178842</v>
       </c>
       <c r="D13">
-        <v>3.574279626959039</v>
+        <v>6.647886388050159</v>
       </c>
       <c r="E13">
-        <v>5.290557582430328</v>
+        <v>9.173478571885084</v>
       </c>
       <c r="F13">
-        <v>43.36734932076633</v>
+        <v>37.99132119941108</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>25.47624220756389</v>
+        <v>28.75875431951466</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.367034459970379</v>
+        <v>10.66959760086713</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.71633887335777</v>
+        <v>18.51467796135181</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.83659835823255</v>
+        <v>23.6527000658852</v>
       </c>
       <c r="C14">
-        <v>23.93847714863389</v>
+        <v>12.74311925640055</v>
       </c>
       <c r="D14">
-        <v>3.593461635082552</v>
+        <v>6.653295430164585</v>
       </c>
       <c r="E14">
-        <v>5.294850324908593</v>
+        <v>9.176171171967603</v>
       </c>
       <c r="F14">
-        <v>42.99559784393487</v>
+        <v>37.92077792404125</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>25.31649749393807</v>
+        <v>28.74643548077372</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.301750141769984</v>
+        <v>10.6616109033785</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.77710822748995</v>
+        <v>18.52827062168794</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.62485414243552</v>
+        <v>23.58660385160453</v>
       </c>
       <c r="C15">
-        <v>23.79214348944274</v>
+        <v>12.67378922067831</v>
       </c>
       <c r="D15">
-        <v>3.605281691510926</v>
+        <v>6.656627071353826</v>
       </c>
       <c r="E15">
-        <v>5.297515457065555</v>
+        <v>9.177832649696176</v>
       </c>
       <c r="F15">
-        <v>42.76796541976262</v>
+        <v>37.87774408802373</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>25.21917850310752</v>
+        <v>28.73904372955514</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.261768419897228</v>
+        <v>10.65676038318135</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.81433916694732</v>
+        <v>18.53663435059098</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.39735077819126</v>
+        <v>23.20592454904557</v>
       </c>
       <c r="C16">
-        <v>22.94444433911328</v>
+        <v>12.26903137171112</v>
       </c>
       <c r="D16">
-        <v>3.674031081396244</v>
+        <v>6.676002167679412</v>
       </c>
       <c r="E16">
-        <v>5.31332025231108</v>
+        <v>9.187540851740049</v>
       </c>
       <c r="F16">
-        <v>41.4643950952551</v>
+        <v>37.63388840599678</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>24.66939596033792</v>
+        <v>28.69904472196442</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.032731746511951</v>
+        <v>10.6296051694093</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.02786294306176</v>
+        <v>18.58514432422558</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.63141660766636</v>
+        <v>22.9708154097782</v>
       </c>
       <c r="C17">
-        <v>22.41598920928537</v>
+        <v>12.01653678993965</v>
       </c>
       <c r="D17">
-        <v>3.717045041937832</v>
+        <v>6.688140599012252</v>
       </c>
       <c r="E17">
-        <v>5.323475225557671</v>
+        <v>9.193663575672575</v>
       </c>
       <c r="F17">
-        <v>40.66525341345147</v>
+        <v>37.48680914821198</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>24.33898484305378</v>
+        <v>28.6766136714961</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.892281418258428</v>
+        <v>10.61352278486977</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.15905368272407</v>
+        <v>18.6154229543176</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.18600505133752</v>
+        <v>22.8350604864836</v>
       </c>
       <c r="C18">
-        <v>22.10883561674935</v>
+        <v>11.87903912708889</v>
       </c>
       <c r="D18">
-        <v>3.742070368094115</v>
+        <v>6.695215109444193</v>
       </c>
       <c r="E18">
-        <v>5.329479152599414</v>
+        <v>9.197246693790573</v>
       </c>
       <c r="F18">
-        <v>40.20573319317883</v>
+        <v>37.40316232375717</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>24.15139110522859</v>
+        <v>28.66448649774829</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.811514539854343</v>
+        <v>10.60448613667654</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.23460500650926</v>
+        <v>18.63302969374395</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.03434923368638</v>
+        <v>22.78901089657314</v>
       </c>
       <c r="C19">
-        <v>22.00427944296338</v>
+        <v>11.83215378823488</v>
       </c>
       <c r="D19">
-        <v>3.75059046425907</v>
+        <v>6.69762636025643</v>
       </c>
       <c r="E19">
-        <v>5.33153947788995</v>
+        <v>9.198470446069065</v>
       </c>
       <c r="F19">
-        <v>40.05016306412177</v>
+        <v>37.37500620465543</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>24.088289614482</v>
+        <v>28.66051348478771</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.784170918326772</v>
+        <v>10.60146330695472</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.26020341016534</v>
+        <v>18.63902392427745</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.71345254735444</v>
+        <v>22.99589885933153</v>
       </c>
       <c r="C20">
-        <v>22.47257305397467</v>
+        <v>12.04182693240931</v>
       </c>
       <c r="D20">
-        <v>3.7124361708379</v>
+        <v>6.686838838091015</v>
       </c>
       <c r="E20">
-        <v>5.322377213291939</v>
+        <v>9.193005439541743</v>
       </c>
       <c r="F20">
-        <v>40.75030896857985</v>
+        <v>37.50236827021786</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>24.37390258271564</v>
+        <v>28.67892133226508</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.907230840309994</v>
+        <v>10.61521272094731</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.14507894037843</v>
+        <v>18.61217995599825</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.93789127650827</v>
+        <v>23.68435947295149</v>
       </c>
       <c r="C21">
-        <v>24.0084909158088</v>
+        <v>12.77623322788247</v>
       </c>
       <c r="D21">
-        <v>3.587812545138249</v>
+        <v>6.651702819253306</v>
       </c>
       <c r="E21">
-        <v>5.293581963798502</v>
+        <v>9.175377751775006</v>
       </c>
       <c r="F21">
-        <v>43.10477370641045</v>
+        <v>37.94146166194646</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>25.36330759028484</v>
+        <v>28.75002175493069</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.320924248237709</v>
+        <v>10.66394813843517</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.75925724776181</v>
+        <v>18.52427024599892</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.35116528291351</v>
+        <v>24.1285378396831</v>
       </c>
       <c r="C22">
-        <v>24.98616969271709</v>
+        <v>13.23470802046167</v>
       </c>
       <c r="D22">
-        <v>3.509454261015475</v>
+        <v>6.629565122831584</v>
       </c>
       <c r="E22">
-        <v>5.276344704716623</v>
+        <v>9.164402554231556</v>
       </c>
       <c r="F22">
-        <v>44.6467178571836</v>
+        <v>38.23637478608247</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>26.03342754253416</v>
+        <v>28.8033788326155</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.591586317802916</v>
+        <v>10.69766437610733</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.5075109019767</v>
+        <v>18.46851056266725</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.60043407536126</v>
+        <v>23.89204955847352</v>
       </c>
       <c r="C23">
-        <v>24.46663125740834</v>
+        <v>12.99199486383812</v>
       </c>
       <c r="D23">
-        <v>3.550960721980025</v>
+        <v>6.64130490319822</v>
       </c>
       <c r="E23">
-        <v>5.285392734564843</v>
+        <v>9.170210406697921</v>
       </c>
       <c r="F23">
-        <v>43.82333359816199</v>
+        <v>38.07827296492234</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>25.67352977319324</v>
+        <v>28.77427153328335</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.447090953609209</v>
+        <v>10.67950060750461</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.641855529838</v>
+        <v>18.49811594326396</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.67637990737111</v>
+        <v>22.98456044952684</v>
       </c>
       <c r="C24">
-        <v>22.44700191890627</v>
+        <v>12.03039947664983</v>
       </c>
       <c r="D24">
-        <v>3.714518924886482</v>
+        <v>6.687427065286798</v>
       </c>
       <c r="E24">
-        <v>5.322873109860346</v>
+        <v>9.193302786375703</v>
       </c>
       <c r="F24">
-        <v>40.71185562939226</v>
+        <v>37.49533114797817</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>24.35810892616205</v>
+        <v>28.67787564433211</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.900472270230766</v>
+        <v>10.61444804844027</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.1513965179304</v>
+        <v>18.61364549512675</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.33509738211592</v>
+        <v>21.98631678544683</v>
       </c>
       <c r="C25">
-        <v>20.14512878891328</v>
+        <v>10.99264676656235</v>
       </c>
       <c r="D25">
-        <v>3.901702763938387</v>
+        <v>6.740726206918011</v>
       </c>
       <c r="E25">
-        <v>5.369488539191057</v>
+        <v>9.220563821023388</v>
       </c>
       <c r="F25">
-        <v>37.36053420995988</v>
+        <v>36.9030945633605</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>23.03235202978883</v>
+        <v>28.60350039645846</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.311595296200066</v>
+        <v>10.55245811483969</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.70485745134697</v>
+        <v>18.74558129811656</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24103426297825</v>
+        <v>26.70127746173168</v>
       </c>
       <c r="C2">
-        <v>10.16730127147443</v>
+        <v>18.3332587496589</v>
       </c>
       <c r="D2">
-        <v>6.783034899723157</v>
+        <v>4.046931801171641</v>
       </c>
       <c r="E2">
-        <v>9.242673668494744</v>
+        <v>5.40860600517304</v>
       </c>
       <c r="F2">
-        <v>36.50089427488133</v>
+        <v>34.8936801089252</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>28.57412395558024</v>
+        <v>22.12958310995354</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.51400227631766</v>
+        <v>7.878944324378353</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.8490871953992</v>
+        <v>12.11801199061194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.7331130343156</v>
+        <v>24.80289201459403</v>
       </c>
       <c r="C3">
-        <v>9.571374779614194</v>
+        <v>17.02767572057299</v>
       </c>
       <c r="D3">
-        <v>6.813626447635657</v>
+        <v>4.149420517294869</v>
       </c>
       <c r="E3">
-        <v>9.258936321943818</v>
+        <v>5.437904656594641</v>
       </c>
       <c r="F3">
-        <v>36.25053531943155</v>
+        <v>33.22430197291437</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>28.5699713761728</v>
+        <v>21.56094985310354</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.49248674702796</v>
+        <v>7.586995017726189</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.92323688013329</v>
+        <v>12.40265350953938</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.42113794443141</v>
+        <v>23.57997206530591</v>
       </c>
       <c r="C4">
-        <v>9.188186371296117</v>
+        <v>16.18636436005737</v>
       </c>
       <c r="D4">
-        <v>6.833358383626037</v>
+        <v>4.214241492524507</v>
       </c>
       <c r="E4">
-        <v>9.26955483221135</v>
+        <v>5.457215377164816</v>
       </c>
       <c r="F4">
-        <v>36.10809446377849</v>
+        <v>32.20217871810461</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>28.57515571999571</v>
+        <v>21.23234829835756</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.48153583486208</v>
+        <v>7.408720775514767</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.97075048805318</v>
+        <v>12.58006538251325</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.29418125165343</v>
+        <v>23.10449621543619</v>
       </c>
       <c r="C5">
-        <v>9.027830497371996</v>
+        <v>15.8333590023185</v>
       </c>
       <c r="D5">
-        <v>6.841638131436982</v>
+        <v>4.241120767759128</v>
       </c>
       <c r="E5">
-        <v>9.274041532107173</v>
+        <v>5.465409886560725</v>
       </c>
       <c r="F5">
-        <v>36.05292966471112</v>
+        <v>31.78673745497066</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>28.57920677570069</v>
+        <v>21.10349691627358</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.47764380748857</v>
+        <v>7.336387448443929</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.99061338602415</v>
+        <v>12.65307523672221</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.27311685253524</v>
+        <v>23.02485825587519</v>
       </c>
       <c r="C6">
-        <v>9.000954446605586</v>
+        <v>15.77412361809715</v>
       </c>
       <c r="D6">
-        <v>6.843027410418425</v>
+        <v>4.245611824834784</v>
       </c>
       <c r="E6">
-        <v>9.274796193342731</v>
+        <v>5.466790034546638</v>
       </c>
       <c r="F6">
-        <v>36.04394478096481</v>
+        <v>31.71783118295679</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>28.57999631239072</v>
+        <v>21.08240334765805</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.47703205817565</v>
+        <v>7.324397730430476</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.99394189045201</v>
+        <v>12.66524292794425</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.4194247779991</v>
+        <v>23.57354073426803</v>
       </c>
       <c r="C7">
-        <v>9.186040563501903</v>
+        <v>16.18164499875356</v>
       </c>
       <c r="D7">
-        <v>6.833469079852981</v>
+        <v>4.214602128666978</v>
       </c>
       <c r="E7">
-        <v>9.269614694835154</v>
+        <v>5.457324582900533</v>
       </c>
       <c r="F7">
-        <v>36.1073387728125</v>
+        <v>32.19657101572558</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>28.57520251507655</v>
+        <v>21.23059023780087</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.48148103274049</v>
+        <v>7.407743891748416</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.9710163367843</v>
+        <v>12.58104706844047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06604568684344</v>
+        <v>26.05849856921777</v>
       </c>
       <c r="C8">
-        <v>9.965490839614146</v>
+        <v>17.89121230808261</v>
       </c>
       <c r="D8">
-        <v>6.793386155724206</v>
+        <v>4.08186868540082</v>
       </c>
       <c r="E8">
-        <v>9.248149828323216</v>
+        <v>5.418429448148711</v>
       </c>
       <c r="F8">
-        <v>36.41225763017709</v>
+        <v>34.31766746479715</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>28.57108347763698</v>
+        <v>21.92919015158189</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.50611626462322</v>
+        <v>7.778113232456678</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.87424282729003</v>
+        <v>12.21563848560667</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.32462432897404</v>
+        <v>30.48682580630606</v>
       </c>
       <c r="C9">
-        <v>11.35190367399198</v>
+        <v>20.93802257313883</v>
       </c>
       <c r="D9">
-        <v>6.722297080481603</v>
+        <v>3.837402928147345</v>
       </c>
       <c r="E9">
-        <v>9.211065352732946</v>
+        <v>5.353010407593512</v>
       </c>
       <c r="F9">
-        <v>37.09748599449368</v>
+        <v>38.48932819719709</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>28.62460295030326</v>
+        <v>23.46715007849421</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.57223251628998</v>
+        <v>8.50986869831971</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.70015472599574</v>
+        <v>11.51770044121081</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23267697735591</v>
+        <v>33.48409865791327</v>
       </c>
       <c r="C10">
-        <v>12.29779322933998</v>
+        <v>23.00431864446961</v>
       </c>
       <c r="D10">
-        <v>6.674629660981654</v>
+        <v>3.669163088399706</v>
       </c>
       <c r="E10">
-        <v>9.186850531309052</v>
+        <v>5.312183995190136</v>
       </c>
       <c r="F10">
-        <v>37.65079809015274</v>
+        <v>41.55560486910442</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>28.70170920611979</v>
+        <v>24.70743516849278</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.631469094186</v>
+        <v>9.048760560409638</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.5817152093954</v>
+        <v>11.01290443399534</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.64006818330384</v>
+        <v>34.79615990449052</v>
       </c>
       <c r="C11">
-        <v>12.72989003967784</v>
+        <v>23.91052814866639</v>
       </c>
       <c r="D11">
-        <v>6.653931447733713</v>
+        <v>3.595717868082002</v>
       </c>
       <c r="E11">
-        <v>9.176488174596102</v>
+        <v>5.295357875174608</v>
       </c>
       <c r="F11">
-        <v>37.91253805314977</v>
+        <v>42.9520632846608</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>28.74501282236967</v>
+        <v>25.29785590465494</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.66068086674379</v>
+        <v>9.294104029979982</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.5298677778927</v>
+        <v>10.78422741250188</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.79335975593877</v>
+        <v>35.2860168722548</v>
       </c>
       <c r="C12">
-        <v>12.88978341918996</v>
+        <v>24.24917388274622</v>
       </c>
       <c r="D12">
-        <v>6.646235152498687</v>
+        <v>3.568426619745251</v>
       </c>
       <c r="E12">
-        <v>9.17265778845773</v>
+        <v>5.289255684116929</v>
       </c>
       <c r="F12">
-        <v>38.0130218233759</v>
+        <v>43.48137419899356</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>28.76259308836812</v>
+        <v>25.52543860890793</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.67206313834741</v>
+        <v>9.387055822713982</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.51052507747634</v>
+        <v>10.69770765412739</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.76039163344799</v>
+        <v>35.18082136803826</v>
       </c>
       <c r="C13">
-        <v>12.85551321178842</v>
+        <v>24.1764354483223</v>
       </c>
       <c r="D13">
-        <v>6.647886388050159</v>
+        <v>3.574279626959199</v>
       </c>
       <c r="E13">
-        <v>9.173478571885084</v>
+        <v>5.290557582430324</v>
       </c>
       <c r="F13">
-        <v>37.99132119941108</v>
+        <v>43.36734932076628</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>28.75875431951466</v>
+        <v>25.476242207564</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.66959760086713</v>
+        <v>9.367034459970364</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.51467796135181</v>
+        <v>10.71633887335802</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.6527000658852</v>
+        <v>34.8365983582326</v>
       </c>
       <c r="C14">
-        <v>12.74311925640055</v>
+        <v>23.93847714863406</v>
       </c>
       <c r="D14">
-        <v>6.653295430164585</v>
+        <v>3.593461635082547</v>
       </c>
       <c r="E14">
-        <v>9.176171171967603</v>
+        <v>5.294850324908792</v>
       </c>
       <c r="F14">
-        <v>37.92077792404125</v>
+        <v>42.99559784393493</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>28.74643548077372</v>
+        <v>25.31649749393808</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.6616109033785</v>
+        <v>9.301750141770002</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.52827062168794</v>
+        <v>10.77710822748995</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.58660385160453</v>
+        <v>34.62485414243545</v>
       </c>
       <c r="C15">
-        <v>12.67378922067831</v>
+        <v>23.79214348944249</v>
       </c>
       <c r="D15">
-        <v>6.656627071353826</v>
+        <v>3.605281691511037</v>
       </c>
       <c r="E15">
-        <v>9.177832649696176</v>
+        <v>5.297515457065427</v>
       </c>
       <c r="F15">
-        <v>37.87774408802373</v>
+        <v>42.76796541976254</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>28.73904372955514</v>
+        <v>25.21917850310756</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.65676038318135</v>
+        <v>9.261768419897214</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.53663435059098</v>
+        <v>10.81433916694745</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20592454904557</v>
+        <v>33.39735077819132</v>
       </c>
       <c r="C16">
-        <v>12.26903137171112</v>
+        <v>22.94444433911315</v>
       </c>
       <c r="D16">
-        <v>6.676002167679412</v>
+        <v>3.674031081396301</v>
       </c>
       <c r="E16">
-        <v>9.187540851740049</v>
+        <v>5.313320252310949</v>
       </c>
       <c r="F16">
-        <v>37.63388840599678</v>
+        <v>41.46439509525511</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>28.69904472196442</v>
+        <v>24.6693959603379</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.6296051694093</v>
+        <v>9.032731746511942</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.58514432422558</v>
+        <v>11.02786294306173</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.9708154097782</v>
+        <v>32.63141660766642</v>
       </c>
       <c r="C17">
-        <v>12.01653678993965</v>
+        <v>22.41598920928543</v>
       </c>
       <c r="D17">
-        <v>6.688140599012252</v>
+        <v>3.717045041937964</v>
       </c>
       <c r="E17">
-        <v>9.193663575672575</v>
+        <v>5.323475225557673</v>
       </c>
       <c r="F17">
-        <v>37.48680914821198</v>
+        <v>40.66525341345149</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>28.6766136714961</v>
+        <v>24.33898484305381</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.61352278486977</v>
+        <v>8.892281418258422</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.6154229543176</v>
+        <v>11.15905368272409</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.8350604864836</v>
+        <v>32.18600505133759</v>
       </c>
       <c r="C18">
-        <v>11.87903912708889</v>
+        <v>22.10883561674926</v>
       </c>
       <c r="D18">
-        <v>6.695215109444193</v>
+        <v>3.742070368094182</v>
       </c>
       <c r="E18">
-        <v>9.197246693790573</v>
+        <v>5.329479152599358</v>
       </c>
       <c r="F18">
-        <v>37.40316232375717</v>
+        <v>40.20573319317887</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>28.66448649774829</v>
+        <v>24.15139110522859</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.60448613667654</v>
+        <v>8.811514539854356</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.63302969374395</v>
+        <v>11.2346050065092</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.78901089657314</v>
+        <v>32.03434923368633</v>
       </c>
       <c r="C19">
-        <v>11.83215378823488</v>
+        <v>22.00427944296337</v>
       </c>
       <c r="D19">
-        <v>6.69762636025643</v>
+        <v>3.750590464259071</v>
       </c>
       <c r="E19">
-        <v>9.198470446069065</v>
+        <v>5.331539477890019</v>
       </c>
       <c r="F19">
-        <v>37.37500620465543</v>
+        <v>40.05016306412181</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>28.66051348478771</v>
+        <v>24.08828961448205</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.60146330695472</v>
+        <v>8.784170918326772</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.63902392427745</v>
+        <v>11.26020341016535</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.99589885933153</v>
+        <v>32.71345254735449</v>
       </c>
       <c r="C20">
-        <v>12.04182693240931</v>
+        <v>22.47257305397479</v>
       </c>
       <c r="D20">
-        <v>6.686838838091015</v>
+        <v>3.712436170837864</v>
       </c>
       <c r="E20">
-        <v>9.193005439541743</v>
+        <v>5.322377213291999</v>
       </c>
       <c r="F20">
-        <v>37.50236827021786</v>
+        <v>40.75030896857994</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>28.67892133226508</v>
+        <v>24.37390258271565</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.61521272094731</v>
+        <v>8.907230840309994</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.61217995599825</v>
+        <v>11.14507894037832</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.68435947295149</v>
+        <v>34.93789127650818</v>
       </c>
       <c r="C21">
-        <v>12.77623322788247</v>
+        <v>24.0084909158087</v>
       </c>
       <c r="D21">
-        <v>6.651702819253306</v>
+        <v>3.587812545138459</v>
       </c>
       <c r="E21">
-        <v>9.175377751775006</v>
+        <v>5.293581963798375</v>
       </c>
       <c r="F21">
-        <v>37.94146166194646</v>
+        <v>43.10477370641038</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>28.75002175493069</v>
+        <v>25.36330759028487</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.66394813843517</v>
+        <v>9.320924248237692</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.52427024599892</v>
+        <v>10.7592572477619</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.1285378396831</v>
+        <v>36.35116528291372</v>
       </c>
       <c r="C22">
-        <v>13.23470802046167</v>
+        <v>24.98616969271708</v>
       </c>
       <c r="D22">
-        <v>6.629565122831584</v>
+        <v>3.509454261015579</v>
       </c>
       <c r="E22">
-        <v>9.164402554231556</v>
+        <v>5.276344704716617</v>
       </c>
       <c r="F22">
-        <v>38.23637478608247</v>
+        <v>44.64671785718373</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>28.8033788326155</v>
+        <v>26.03342754253417</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.69766437610733</v>
+        <v>9.591586317802909</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.46851056266725</v>
+        <v>10.50751090197664</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.89204955847352</v>
+        <v>35.60043407536126</v>
       </c>
       <c r="C23">
-        <v>12.99199486383812</v>
+        <v>24.46663125740827</v>
       </c>
       <c r="D23">
-        <v>6.64130490319822</v>
+        <v>3.55096072198016</v>
       </c>
       <c r="E23">
-        <v>9.170210406697921</v>
+        <v>5.285392734565098</v>
       </c>
       <c r="F23">
-        <v>38.07827296492234</v>
+        <v>43.82333359816199</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>28.77427153328335</v>
+        <v>25.67352977319328</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.67950060750461</v>
+        <v>9.447090953609234</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.49811594326396</v>
+        <v>10.64185552983803</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.98456044952684</v>
+        <v>32.67637990737111</v>
       </c>
       <c r="C24">
-        <v>12.03039947664983</v>
+        <v>22.44700191890646</v>
       </c>
       <c r="D24">
-        <v>6.687427065286798</v>
+        <v>3.714518924886438</v>
       </c>
       <c r="E24">
-        <v>9.193302786375703</v>
+        <v>5.322873109860478</v>
       </c>
       <c r="F24">
-        <v>37.49533114797817</v>
+        <v>40.7118556293922</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>28.67787564433211</v>
+        <v>24.358108926162</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.61444804844027</v>
+        <v>8.900472270230754</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.61364549512675</v>
+        <v>11.15139651793031</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.98631678544683</v>
+        <v>29.33509738211598</v>
       </c>
       <c r="C25">
-        <v>10.99264676656235</v>
+        <v>20.14512878891317</v>
       </c>
       <c r="D25">
-        <v>6.740726206918011</v>
+        <v>3.901702763938382</v>
       </c>
       <c r="E25">
-        <v>9.220563821023388</v>
+        <v>5.369488539190867</v>
       </c>
       <c r="F25">
-        <v>36.9030945633605</v>
+        <v>37.36053420995989</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>28.60350039645846</v>
+        <v>23.03235202978878</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.55245811483969</v>
+        <v>8.311595296200036</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.74558129811656</v>
+        <v>11.70485745134691</v>
       </c>
       <c r="O25">
         <v>0</v>
